--- a/sp23/CS2051 Grade Calculator.xlsx
+++ b/sp23/CS2051 Grade Calculator.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/SarthakMohanty/Documents/Georgia Tech/Spring 2023/CS2051-HonorsDiscreteMath/sp23/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DF71F32F-8944-AD4C-B950-E39575989BD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{098F6245-D726-9D45-B6CA-B96DAF244D0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="598" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,6 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">'CS 2051'!$A$1:$C$22</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -323,8 +322,6 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -333,7 +330,7 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -342,6 +339,8 @@
     <xf numFmtId="10" fontId="9" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -762,7 +761,7 @@
   <dimension ref="B2:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="113" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -781,16 +780,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="23" x14ac:dyDescent="0.25">
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="12"/>
+      <c r="C2" s="19"/>
     </row>
     <row r="3" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="17" t="s">
         <v>25</v>
       </c>
     </row>
@@ -798,9 +797,9 @@
       <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="19">
+      <c r="C4" s="17">
         <f>SUM(C24*C23, D24*D23, E24*E23)</f>
-        <v>0.89682500000000009</v>
+        <v>0.89670000000000005</v>
       </c>
     </row>
     <row r="5" spans="2:5" ht="20" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -813,10 +812,10 @@
       </c>
     </row>
     <row r="7" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="13">
         <v>0.9</v>
       </c>
     </row>
@@ -825,14 +824,14 @@
         <v>8</v>
       </c>
       <c r="C8" s="7">
-        <v>0.95</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="9" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="15">
+      <c r="C9" s="13">
         <v>0.93</v>
       </c>
     </row>
@@ -840,32 +839,32 @@
       <c r="B10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="17">
-        <v>0.91</v>
+      <c r="C10" s="15">
+        <v>0.93</v>
       </c>
     </row>
     <row r="11" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="15">
+      <c r="C11" s="13">
         <v>0.93</v>
       </c>
-      <c r="E11" s="13"/>
+      <c r="E11" s="11"/>
     </row>
     <row r="12" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="17">
+      <c r="C12" s="15">
         <v>0.93</v>
       </c>
     </row>
     <row r="13" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="15">
+      <c r="C13" s="13">
         <v>0.93</v>
       </c>
     </row>
@@ -873,15 +872,15 @@
       <c r="B14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="17">
+      <c r="C14" s="15">
         <v>0.93</v>
       </c>
     </row>
     <row r="15" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="15">
+      <c r="C15" s="13">
         <v>0.93</v>
       </c>
     </row>
@@ -889,15 +888,15 @@
       <c r="B16" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="17">
+      <c r="C16" s="15">
         <v>0.93</v>
       </c>
     </row>
     <row r="17" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="15">
+      <c r="C17" s="13">
         <v>0.6</v>
       </c>
     </row>
@@ -910,10 +909,10 @@
       </c>
     </row>
     <row r="19" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="15">
+      <c r="C19" s="13">
         <v>0.89</v>
       </c>
     </row>
@@ -955,18 +954,18 @@
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B24" s="18" t="s">
+      <c r="B24" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="15">
+      <c r="C24" s="13">
         <f>C7</f>
         <v>0.9</v>
       </c>
-      <c r="D24" s="16">
+      <c r="D24" s="14">
         <f>(SUM(C8:C16)-SMALL(C8:C16, 1))/(COUNT(C8:C16)-1)</f>
-        <v>0.93249999999999988</v>
-      </c>
-      <c r="E24" s="16">
+        <v>0.92999999999999994</v>
+      </c>
+      <c r="E24" s="14">
         <f>SUM(C17*0.15, C18*0.2,C19*0.3,C20*0.35)</f>
         <v>0.85200000000000009</v>
       </c>
@@ -993,23 +992,26 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
+  <ignoredErrors>
+    <ignoredError sqref="D24" formulaRange="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <NumericAssetId xmlns="145c5697-5eb5-440b-b2f1-a8273fb59250" xsi:nil="true"/>
-    <AssetType xmlns="145c5697-5eb5-440b-b2f1-a8273fb59250">TP</AssetType>
-    <Markets xmlns="145c5697-5eb5-440b-b2f1-a8273fb59250">en-us</Markets>
-    <AppVer xmlns="145c5697-5eb5-440b-b2f1-a8273fb59250" xsi:nil="true"/>
-    <AuthoringAssetId xmlns="145c5697-5eb5-440b-b2f1-a8273fb59250">TP001019773</AuthoringAssetId>
-    <AssetId xmlns="145c5697-5eb5-440b-b2f1-a8273fb59250">TS001019773</AssetId>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="OOFile" ma:contentTypeID="0x0101006025706CF4CD034688BEBAE97A2E701D020200C3831ACA17D8814887A164412888521E" ma:contentTypeVersion="7" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ed1fea5d08807278759d338940aa9e8f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="145c5697-5eb5-440b-b2f1-a8273fb59250" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="174e4b03d57b3d621fa064bbab783e99" ns2:_="">
     <xsd:import namespace="145c5697-5eb5-440b-b2f1-a8273fb59250"/>
@@ -1166,29 +1168,36 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-</file>
-
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <NumericAssetId xmlns="145c5697-5eb5-440b-b2f1-a8273fb59250" xsi:nil="true"/>
+    <AssetType xmlns="145c5697-5eb5-440b-b2f1-a8273fb59250">TP</AssetType>
+    <Markets xmlns="145c5697-5eb5-440b-b2f1-a8273fb59250">en-us</Markets>
+    <AppVer xmlns="145c5697-5eb5-440b-b2f1-a8273fb59250" xsi:nil="true"/>
+    <AuthoringAssetId xmlns="145c5697-5eb5-440b-b2f1-a8273fb59250">TP001019773</AuthoringAssetId>
+    <AssetId xmlns="145c5697-5eb5-440b-b2f1-a8273fb59250">TS001019773</AssetId>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{500D106E-4620-4AA6-A590-4CE7E91601A6}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{82C2D985-840B-45BB-8239-76B016A033A9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="145c5697-5eb5-440b-b2f1-a8273fb59250"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2522648B-0D3C-4746-BD44-AFE4089F048A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F9E7D5DA-619A-4C72-B251-6AED956C984D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1206,18 +1215,11 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2522648B-0D3C-4746-BD44-AFE4089F048A}">
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{500D106E-4620-4AA6-A590-4CE7E91601A6}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{82C2D985-840B-45BB-8239-76B016A033A9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="145c5697-5eb5-440b-b2f1-a8273fb59250"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>